--- a/input/scenario_retirementAgeFixed.xlsx
+++ b/input/scenario_retirementAgeFixed.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\labsim\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patryk\git\SimPathsFork\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CECB873-10C1-405C-85F6-11FCC18518B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9607F75C-9CBA-49EE-BBFC-7FC3CB687812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6990" yWindow="2460" windowWidth="28800" windowHeight="15435" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6270" yWindow="3120" windowWidth="28800" windowHeight="15105" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="old IT" sheetId="12" r:id="rId1"/>
     <sheet name="IT" sheetId="9" r:id="rId2"/>
     <sheet name="UK" sheetId="10" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="11" r:id="rId4"/>
+    <sheet name="HU" sheetId="13" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>year</t>
   </si>
@@ -117,13 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BR65"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -412,89 +410,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -511,7 +444,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -528,7 +461,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -545,7 +478,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -562,7 +495,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -579,7 +512,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -596,7 +529,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -613,7 +546,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -630,7 +563,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -647,7 +580,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -664,7 +597,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -681,7 +614,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -698,7 +631,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -715,7 +648,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -732,7 +665,7 @@
         <v>6.6472541999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -1590,89 +1523,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:BP55"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-    </row>
-    <row r="2" spans="1:68" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -1683,7 +1551,7 @@
         <v>63.490319999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -1697,7 +1565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -1708,7 +1576,7 @@
         <v>64.479995000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -1719,7 +1587,7 @@
         <v>64.974832499999991</v>
       </c>
     </row>
-    <row r="6" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -1730,7 +1598,7 @@
         <v>65.469669999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -1741,7 +1609,7 @@
         <v>65.5858323076923</v>
       </c>
     </row>
-    <row r="8" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -1752,7 +1620,7 @@
         <v>65.701994615384606</v>
       </c>
     </row>
-    <row r="9" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -1763,7 +1631,7 @@
         <v>65.818156923076913</v>
       </c>
     </row>
-    <row r="10" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -1774,7 +1642,7 @@
         <v>65.934319230769219</v>
       </c>
     </row>
-    <row r="11" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -1785,7 +1653,7 @@
         <v>66.050481538461526</v>
       </c>
     </row>
-    <row r="12" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -1796,7 +1664,7 @@
         <v>66.166643846153832</v>
       </c>
     </row>
-    <row r="13" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -1807,7 +1675,7 @@
         <v>66.282806153846138</v>
       </c>
     </row>
-    <row r="14" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -1818,7 +1686,7 @@
         <v>66.398968461538445</v>
       </c>
     </row>
-    <row r="15" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -1829,7 +1697,7 @@
         <v>66.515130769230751</v>
       </c>
     </row>
-    <row r="16" spans="1:68" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -2277,25 +2145,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="8.7109375" style="5"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2355,10 +2220,10 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7">
         <v>2015</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>65</v>
       </c>
       <c r="C7">
@@ -2366,10 +2231,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8">
         <v>2016</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>65</v>
       </c>
       <c r="C8">
@@ -2377,10 +2242,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>65</v>
       </c>
       <c r="C9">
@@ -2388,21 +2253,21 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10">
         <v>2018</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>65</v>
       </c>
       <c r="C10">
         <v>65</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11">
         <v>2019</v>
       </c>
       <c r="B11">
@@ -2413,7 +2278,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12">
         <v>2020</v>
       </c>
       <c r="B12">
@@ -2424,7 +2289,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13">
         <v>2021</v>
       </c>
       <c r="B13">
@@ -2435,7 +2300,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14">
         <v>2022</v>
       </c>
       <c r="B14">
@@ -2446,7 +2311,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15">
         <v>2023</v>
       </c>
       <c r="B15">
@@ -2457,7 +2322,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16">
         <v>2024</v>
       </c>
       <c r="B16">
@@ -2468,7 +2333,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17">
         <v>2025</v>
       </c>
       <c r="B17">
@@ -2479,7 +2344,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18">
         <v>2026</v>
       </c>
       <c r="B18">
@@ -2490,7 +2355,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19">
         <v>2027</v>
       </c>
       <c r="B19">
@@ -2501,7 +2366,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20">
         <v>2028</v>
       </c>
       <c r="B20">
@@ -2512,7 +2377,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21">
         <v>2029</v>
       </c>
       <c r="B21">
@@ -2523,7 +2388,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22">
         <v>2030</v>
       </c>
       <c r="B22">
@@ -2534,7 +2399,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23">
         <v>2031</v>
       </c>
       <c r="B23">
@@ -2545,7 +2410,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24">
         <v>2032</v>
       </c>
       <c r="B24">
@@ -2556,7 +2421,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25">
         <v>2033</v>
       </c>
       <c r="B25">
@@ -2567,7 +2432,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26">
         <v>2034</v>
       </c>
       <c r="B26">
@@ -2578,7 +2443,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27">
         <v>2035</v>
       </c>
       <c r="B27">
@@ -2589,7 +2454,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28">
         <v>2036</v>
       </c>
       <c r="B28">
@@ -2600,7 +2465,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29">
         <v>2037</v>
       </c>
       <c r="B29">
@@ -2611,7 +2476,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30">
         <v>2038</v>
       </c>
       <c r="B30">
@@ -2622,7 +2487,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31">
         <v>2039</v>
       </c>
       <c r="B31">
@@ -2633,7 +2498,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32">
         <v>2040</v>
       </c>
       <c r="B32">
@@ -2644,7 +2509,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33">
         <v>2041</v>
       </c>
       <c r="B33">
@@ -2655,7 +2520,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34">
         <v>2042</v>
       </c>
       <c r="B34">
@@ -2666,7 +2531,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35">
         <v>2043</v>
       </c>
       <c r="B35">
@@ -2677,7 +2542,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36">
         <v>2044</v>
       </c>
       <c r="B36">
@@ -2688,7 +2553,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37">
         <v>2045</v>
       </c>
       <c r="B37">
@@ -2699,7 +2564,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38">
         <v>2046</v>
       </c>
       <c r="B38">
@@ -2710,7 +2575,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39">
         <v>2047</v>
       </c>
       <c r="B39">
@@ -2721,7 +2586,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40">
         <v>2048</v>
       </c>
       <c r="B40">
@@ -2732,7 +2597,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41">
         <v>2049</v>
       </c>
       <c r="B41">
@@ -2743,7 +2608,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42">
         <v>2050</v>
       </c>
       <c r="B42">
@@ -2754,7 +2619,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43">
         <v>2051</v>
       </c>
       <c r="B43">
@@ -2765,7 +2630,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44">
         <v>2052</v>
       </c>
       <c r="B44">
@@ -2776,7 +2641,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45">
         <v>2053</v>
       </c>
       <c r="B45">
@@ -2787,7 +2652,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46">
         <v>2054</v>
       </c>
       <c r="B46">
@@ -2798,7 +2663,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47">
         <v>2055</v>
       </c>
       <c r="B47">
@@ -2809,7 +2674,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48">
         <v>2056</v>
       </c>
       <c r="B48">
@@ -2820,7 +2685,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49">
         <v>2057</v>
       </c>
       <c r="B49">
@@ -2831,7 +2696,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50">
         <v>2058</v>
       </c>
       <c r="B50">
@@ -2842,7 +2707,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51">
         <v>2059</v>
       </c>
       <c r="B51">
@@ -2853,7 +2718,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52">
         <v>2060</v>
       </c>
       <c r="B52">
@@ -2862,10 +2727,6 @@
       <c r="C52">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53"/>
-      <c r="C53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2873,6 +2734,594 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44795FC8-C708-4FB6-B568-4F6BA4B115F4}">
+  <dimension ref="A1:F52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2010</v>
+      </c>
+      <c r="B2">
+        <v>65</v>
+      </c>
+      <c r="C2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2011</v>
+      </c>
+      <c r="B3">
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2012</v>
+      </c>
+      <c r="B4">
+        <v>65</v>
+      </c>
+      <c r="C4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2013</v>
+      </c>
+      <c r="B5">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2014</v>
+      </c>
+      <c r="B6">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2015</v>
+      </c>
+      <c r="B7">
+        <v>65</v>
+      </c>
+      <c r="C7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2016</v>
+      </c>
+      <c r="B8">
+        <v>65</v>
+      </c>
+      <c r="C8">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2017</v>
+      </c>
+      <c r="B9">
+        <v>65</v>
+      </c>
+      <c r="C9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>65</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2020</v>
+      </c>
+      <c r="B12">
+        <v>66</v>
+      </c>
+      <c r="C12">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13">
+        <v>66</v>
+      </c>
+      <c r="C13">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14">
+        <v>66</v>
+      </c>
+      <c r="C14">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2023</v>
+      </c>
+      <c r="B15">
+        <v>66</v>
+      </c>
+      <c r="C15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2024</v>
+      </c>
+      <c r="B16">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2025</v>
+      </c>
+      <c r="B17">
+        <v>66</v>
+      </c>
+      <c r="C17">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2026</v>
+      </c>
+      <c r="B18">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2027</v>
+      </c>
+      <c r="B19">
+        <v>67</v>
+      </c>
+      <c r="C19">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2028</v>
+      </c>
+      <c r="B20">
+        <v>67</v>
+      </c>
+      <c r="C20">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2029</v>
+      </c>
+      <c r="B21">
+        <v>67</v>
+      </c>
+      <c r="C21">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2030</v>
+      </c>
+      <c r="B22">
+        <v>67</v>
+      </c>
+      <c r="C22">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2031</v>
+      </c>
+      <c r="B23">
+        <v>67</v>
+      </c>
+      <c r="C23">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2032</v>
+      </c>
+      <c r="B24">
+        <v>67</v>
+      </c>
+      <c r="C24">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2033</v>
+      </c>
+      <c r="B25">
+        <v>67</v>
+      </c>
+      <c r="C25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2034</v>
+      </c>
+      <c r="B26">
+        <v>67</v>
+      </c>
+      <c r="C26">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2035</v>
+      </c>
+      <c r="B27">
+        <v>67</v>
+      </c>
+      <c r="C27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2036</v>
+      </c>
+      <c r="B28">
+        <v>67</v>
+      </c>
+      <c r="C28">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2037</v>
+      </c>
+      <c r="B29">
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2038</v>
+      </c>
+      <c r="B30">
+        <v>67</v>
+      </c>
+      <c r="C30">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2039</v>
+      </c>
+      <c r="B31">
+        <v>67</v>
+      </c>
+      <c r="C31">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2040</v>
+      </c>
+      <c r="B32">
+        <v>67</v>
+      </c>
+      <c r="C32">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2041</v>
+      </c>
+      <c r="B33">
+        <v>67</v>
+      </c>
+      <c r="C33">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2042</v>
+      </c>
+      <c r="B34">
+        <v>67</v>
+      </c>
+      <c r="C34">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2043</v>
+      </c>
+      <c r="B35">
+        <v>67</v>
+      </c>
+      <c r="C35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2044</v>
+      </c>
+      <c r="B36">
+        <v>67</v>
+      </c>
+      <c r="C36">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2045</v>
+      </c>
+      <c r="B37">
+        <v>68</v>
+      </c>
+      <c r="C37">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2046</v>
+      </c>
+      <c r="B38">
+        <v>68</v>
+      </c>
+      <c r="C38">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2047</v>
+      </c>
+      <c r="B39">
+        <v>68</v>
+      </c>
+      <c r="C39">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2048</v>
+      </c>
+      <c r="B40">
+        <v>68</v>
+      </c>
+      <c r="C40">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2049</v>
+      </c>
+      <c r="B41">
+        <v>68</v>
+      </c>
+      <c r="C41">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2050</v>
+      </c>
+      <c r="B42">
+        <v>68</v>
+      </c>
+      <c r="C42">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2051</v>
+      </c>
+      <c r="B43">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2052</v>
+      </c>
+      <c r="B44">
+        <v>68</v>
+      </c>
+      <c r="C44">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2053</v>
+      </c>
+      <c r="B45">
+        <v>68</v>
+      </c>
+      <c r="C45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2054</v>
+      </c>
+      <c r="B46">
+        <v>68</v>
+      </c>
+      <c r="C46">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2055</v>
+      </c>
+      <c r="B47">
+        <v>68</v>
+      </c>
+      <c r="C47">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2056</v>
+      </c>
+      <c r="B48">
+        <v>68</v>
+      </c>
+      <c r="C48">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2057</v>
+      </c>
+      <c r="B49">
+        <v>68</v>
+      </c>
+      <c r="C49">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2058</v>
+      </c>
+      <c r="B50">
+        <v>68</v>
+      </c>
+      <c r="C50">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2059</v>
+      </c>
+      <c r="B51">
+        <v>68</v>
+      </c>
+      <c r="C51">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2060</v>
+      </c>
+      <c r="B52">
+        <v>68</v>
+      </c>
+      <c r="C52">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E51"/>
   <sheetViews>
